--- a/biology/Biologie cellulaire et moléculaire/Auto-assemblage_moléculaire/Auto-assemblage_moléculaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Auto-assemblage_moléculaire/Auto-assemblage_moléculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auto-assemblage_mol%C3%A9culaire</t>
+          <t>Auto-assemblage_moléculaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auto-assemblage moléculaire est le processus par lequel des molécules soi-montant[1] adoptent un agencement sans la direction d'une source extérieure. En général, le terme fait référence à l'auto-assemblage intermoléculaire alors que l'auto-assemblage intramoléculaire prend plus communément le nom de pliage ou de repliement dans le cas de protéines.
-L'auto-assemblage moléculaire est un concept clé dans la chimie supramoléculaire[2],[3] puisque l'assemblage des molécules dans de tels systèmes se fait par liaisons non-covalentes (ex. liaisons d'hydrogène, coordination métallique, forces hydrophobes, forces de van der Waals, empilements (π-π), l'électrostatique) en plus d'entre-actions électromagnétiques. 
-L'auto-assemblage moléculaire permet la construction de formes moléculaires difficiles. Par exemple il a été possible de réaliser[4], grâce à l'ADN, une structure pareille aux anneaux borroméens (un jeu d'anneaux imbriqués où l'enlèvement d'un seul déverrouille les autres). Plus récemment une structure semblable a été réalisé par moyen de composants non-biologiques[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auto-assemblage moléculaire est le processus par lequel des molécules soi-montant adoptent un agencement sans la direction d'une source extérieure. En général, le terme fait référence à l'auto-assemblage intermoléculaire alors que l'auto-assemblage intramoléculaire prend plus communément le nom de pliage ou de repliement dans le cas de protéines.
+L'auto-assemblage moléculaire est un concept clé dans la chimie supramoléculaire, puisque l'assemblage des molécules dans de tels systèmes se fait par liaisons non-covalentes (ex. liaisons d'hydrogène, coordination métallique, forces hydrophobes, forces de van der Waals, empilements (π-π), l'électrostatique) en plus d'entre-actions électromagnétiques. 
+L'auto-assemblage moléculaire permet la construction de formes moléculaires difficiles. Par exemple il a été possible de réaliser, grâce à l'ADN, une structure pareille aux anneaux borroméens (un jeu d'anneaux imbriqués où l'enlèvement d'un seul déverrouille les autres). Plus récemment une structure semblable a été réalisé par moyen de composants non-biologiques.
 </t>
         </is>
       </c>
